--- a/biology/Médecine/Saad_Khoury/Saad_Khoury.xlsx
+++ b/biology/Médecine/Saad_Khoury/Saad_Khoury.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Saad R. Khoury, né le 19 mai 1941 à Saïda, est un professeur de médecine libanais. En plus de son activité clinique surtout dans le domaine des cancers urologiques, il a été un des pionniers dans le domaine de la création de recommandations basées sur les preuves, et de la formation médicale dans le domaine de l’urologie, en faisant de la France le rendez-vous annuel de « Consultations » internationales d'experts en urologie.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Né à Saïda au Liban, Saad R. Khoury est originaire du village de Maghdouché qui surplombe la ville de Saïda dans le sud Liban.
 Son père le Dr Rached Khoury a été l’un de 2 premiers chirurgiens à s’installer au Liban Sud en 1930. Il a été par la suite élu député pendant plus de 35 ans.
@@ -548,7 +562,9 @@
           <t>Affiliations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Association française d'urologie (AFU)
 Société américaine d’urologie (AUA)
@@ -583,9 +599,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Officier de l'ordre des Arts et des Lettres (2010)[1]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Officier de l'ordre des Arts et des Lettres (2010)
  Commandeur de l’Ordre national libanais du Cèdre (Liban).
 Achievement Award de l’Association américaine d’urologie (AUA) en 1994.
 Prix Félix Guyon 2000 (France).</t>
@@ -616,7 +634,9 @@
           <t>Comptes-rendus des Consultations internationales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Ces ouvrages collectifs en anglais, basés sur les principes de la « Médecine basées sur les preuves » et remis à jour périodiquement sont considérés comme étant parmi les ouvrages les plus complets et qui font le plus autorité dans le monde dans leurs domaines respectifs.
 First International Symposium on Prostate cancer, Paris Hôtel Intercontinental, Juin 1981
@@ -671,7 +691,9 @@
           <t>Autres publications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cancer : de grands spécialistes répondent, Hachette, Paris, 1979
 Urologie : pathologie infectieuse et parasitaire, Masson, Paris, 1985
